--- a/October/Others/Price List Update_16.10.19.xlsx
+++ b/October/Others/Price List Update_16.10.19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="123">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>D40i</t>
+  </si>
+  <si>
+    <t>B66</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1309,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2406,7 +2409,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2852,7 +2855,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2923,7 +2926,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2997,7 +3000,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3068,7 +3071,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3385,7 +3388,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4485,7 +4488,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4931,7 +4934,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5002,7 +5005,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5076,7 +5079,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5147,7 +5150,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5464,7 +5467,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6564,7 +6567,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7010,7 +7013,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7081,7 +7084,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7155,7 +7158,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7226,7 +7229,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10091,7 +10094,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="A1:K53"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10306,9 +10309,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="42">
+        <v>800</v>
+      </c>
+      <c r="C9" s="42">
+        <v>860</v>
+      </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="40"/>
